--- a/docs/05-Power-Budget/Power Budget Sam Burns.xlsx
+++ b/docs/05-Power-Budget/Power Budget Sam Burns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umutb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/suburns_sundevils_asu_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B4B3F-A1D4-452A-8604-570872463779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D3F8DD-36E1-4EDC-BB7E-A07D96022125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43140" yWindow="4155" windowWidth="18000" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="3580" windowWidth="18000" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Budget" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>mA</t>
   </si>
   <si>
-    <t>Opamp</t>
-  </si>
-  <si>
     <t>5V regulator</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Smart Light</t>
   </si>
   <si>
-    <t>Sam B, Sam M, Dasri, Ari</t>
-  </si>
-  <si>
     <t>AC/DC ADAPTOR 0930</t>
   </si>
   <si>
@@ -175,21 +169,6 @@
     <t>4.8-5.25VDC</t>
   </si>
   <si>
-    <t>MCP6004-I/P-ND</t>
-  </si>
-  <si>
-    <t>P160KN2-0EC15B100K</t>
-  </si>
-  <si>
-    <t>Potenteomitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +6V to 1.8V</t>
-  </si>
-  <si>
-    <t>200V</t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
@@ -200,13 +179,34 @@
   </si>
   <si>
     <t xml:space="preserve">Power Budget </t>
+  </si>
+  <si>
+    <t>Sam B, Sam M, Ari</t>
+  </si>
+  <si>
+    <t>H bridge</t>
+  </si>
+  <si>
+    <t>5v motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN8100N </t>
+  </si>
+  <si>
+    <t>FIT0467</t>
+  </si>
+  <si>
+    <t>2V to 9V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2V to 9V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -563,6 +563,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -588,7 +597,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -599,14 +607,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,11 +958,11 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H34" sqref="A1:H34"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.4140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.4140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.08203125" customWidth="1"/>
     <col min="2" max="2" width="23.08203125" customWidth="1"/>
@@ -974,19 +974,19 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,12 +996,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
@@ -1010,12 +1010,12 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
@@ -1024,7 +1024,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1048,19 +1048,19 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1086,66 +1086,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1.41</v>
+        <v>100</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G11" si="0">E9*F9</f>
-        <v>1.41</v>
+        <v>100</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="F10" s="17">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="17"/>
       <c r="D12" s="13"/>
@@ -1169,7 +1169,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -1179,21 +1179,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -1217,105 +1217,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1.41</v>
+        <v>100</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" ref="G16:G17" si="1">E16*F16</f>
-        <v>1.41</v>
+        <v>100</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E17" s="13">
         <v>1</v>
       </c>
       <c r="F17" s="17">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="15">
         <f>SUM(G16:G17)</f>
-        <v>31.41</v>
+        <v>1600</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="23">
         <v>0.25</v>
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
-      <c r="B20" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="15">
         <f>G18*(1+G19)</f>
-        <v>39.262500000000003</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1325,18 +1325,18 @@
       <c r="G21" s="28"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
@@ -1352,58 +1352,58 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29"/>
-      <c r="B23" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="28">
         <f>G22-G20</f>
-        <v>2060.7375000000002</v>
+        <v>100</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>6</v>
@@ -1415,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>10</v>
@@ -1427,21 +1427,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="C28" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="27">
         <v>3000</v>
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -1463,9 +1463,9 @@
       <c r="G29" s="28"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" s="47" t="s">
-        <v>28</v>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -1475,16 +1475,16 @@
       <c r="G30" s="28"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="A31" s="48"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="53"/>
       <c r="B31" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -1500,23 +1500,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="53"/>
       <c r="B32" s="17"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35"/>
-      <c r="B33" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="33">
         <f>G28-SUM(G30:G32)</f>
         <v>900</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -1545,67 +1545,62 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1"/>
-    <row r="37" spans="1:8" ht="15" customHeight="1"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1"/>
-    <row r="39" spans="1:8" ht="15" customHeight="1"/>
-    <row r="40" spans="1:8" ht="15" customHeight="1"/>
-    <row r="41" spans="1:8" ht="15" customHeight="1"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1"/>
-    <row r="43" spans="1:8" ht="15" customHeight="1"/>
-    <row r="44" spans="1:8" ht="15" customHeight="1"/>
-    <row r="45" spans="1:8" ht="15" customHeight="1"/>
-    <row r="46" spans="1:8" ht="15" customHeight="1"/>
-    <row r="47" spans="1:8" ht="15" customHeight="1"/>
-    <row r="48" spans="1:8" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="82" ht="15" customHeight="1"/>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="A24:H24"/>
@@ -1613,6 +1608,11 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="G23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
